--- a/Source/dữ liệu/Input,Output máy nút chặn.xlsx
+++ b/Source/dữ liệu/Input,Output máy nút chặn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wembley Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wembley Project\ar-vr_Wembley_AR\Source\dữ liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA26A041-48FD-450E-AB61-4DA7AD8C31FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14756F8-3AB2-4C5D-8539-3D66A6C76F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="496">
   <si>
     <t>STT</t>
   </si>
@@ -737,213 +737,18 @@
     <t>X102,X103</t>
   </si>
   <si>
-    <t>INPUT</t>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cảm biến xylanh MR0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cụm 4 cảm biến quang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y22</t>
-  </si>
-  <si>
     <t xml:space="preserve"> X41</t>
   </si>
   <si>
-    <t xml:space="preserve"> X55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y51</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y64</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y65</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y67</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y70</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y42</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X35, X36, X37, X40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y212 - Y213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y214 - Y215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y216 - Y217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y220 - Y221</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y274 - Y275</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TR1 Silicon pressing cylinder UP/DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TR3 Silicon pressing cylinder UP/DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TR4 Silicon pressing cylinder UP/DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TR2 Silicon pressing cylinder UP/DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stopper cylinder FWD/REV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X23</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> X24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X32</t>
-  </si>
-  <si>
     <t>Station 1: Body loading unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y26</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S1 Singling Plate Vert Cyl Dn</t>
   </si>
   <si>
@@ -992,9 +797,6 @@
     <t xml:space="preserve"> S1 Bowl Feeder-2 On/Off</t>
   </si>
   <si>
-    <t xml:space="preserve"> S1 Bowl Feeder-1 A/B On/Off </t>
-  </si>
-  <si>
     <t xml:space="preserve"> S1 Bowl Feeder-1 A/B On/Off</t>
   </si>
   <si>
@@ -1007,156 +809,9 @@
     <t xml:space="preserve"> S1 Linear Fedr A/B On/Off T2</t>
   </si>
   <si>
-    <t xml:space="preserve"> S1 Linear Fedr A/B On/Off T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Linear Fedr A/B On/Off T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Singling Plate Vaccum T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Singling Plate Vaccum T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Singling Plate Vaccum T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Singling Plate Vaccum T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y201</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y203</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y204</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y205</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y207</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Horz P &amp; P Slide Fwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Horz P &amp; P Slide Rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-1 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-1 Off </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-2 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-2 Off </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-3 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-3 Off </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-4 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 P &amp; P Gripper-4 Off </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Singling Gripper On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 Singling Gripper Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 S, Plate Vert Lift Cyl Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S1 S, Plate Vert Lift Cyl Dn</t>
-  </si>
-  <si>
     <t>Station 2: Rubber loading unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y220</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y221</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 Singling Plate Vaccum T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 Singling Plate Vaccum T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 Singling Plate Vaccum T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2  S, Plate Vert Lift Cyl Dn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2  S, Plate Vert Lift Cyl Up</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S2 Linear Feder A/B On/Off T4</t>
   </si>
   <si>
@@ -1166,39 +821,9 @@
     <t xml:space="preserve"> S2 Linear Feder A/B On/Off T2</t>
   </si>
   <si>
-    <t xml:space="preserve"> S2 Linear Feder A/B On/Off T1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S2 Bowl Feeder-1 On/Off</t>
   </si>
   <si>
-    <t xml:space="preserve"> S2 P &amp; P Vaccum On/Off T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 P &amp; P Vaccum On/Off T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 P &amp; P Vaccum On/Off T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 P &amp; P Vaccum On/Off T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2 Singling Plate Vaccum T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X35</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X36</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S2 Singling Plate Vert Cyl Dn</t>
   </si>
   <si>
@@ -1241,117 +866,9 @@
     <t xml:space="preserve"> S3 Silicon Press Cyl Up T4</t>
   </si>
   <si>
-    <t xml:space="preserve"> X45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X52</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X54</t>
-  </si>
-  <si>
     <t>Station 3: Rubber presense checking unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y223</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y224</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y225</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y226</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y227</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y231</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Horz P &amp; P Cyl Rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Up T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Dn T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Up T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Dn T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Up T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Dn T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Up T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Silicon Pressing Cyl Dn T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S3 Horz P &amp; P Cyl Fwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X63</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X64</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X65</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X66</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S4 Horz P &amp; P Slide Rev </t>
   </si>
   <si>
@@ -1385,48 +902,6 @@
     <t>Station 4: Cover loading unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y52</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y63</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 S, Plate Vaccum On/Off T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 S, Plate Vaccum On/Off T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 S, Plate Vaccum On/Off T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 S, Plate Vaccum On/Off T4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S4 Bowl Feeder-1 On/Off</t>
   </si>
   <si>
@@ -1436,99 +911,6 @@
     <t xml:space="preserve"> S4 Bowl Feeder-2 A/B On/Off</t>
   </si>
   <si>
-    <t xml:space="preserve"> S4 Linear Feeder On/Off T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 Linear Feeder On/Off T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y232</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y233</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y234</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y236</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y237</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y240</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y241</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y242</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y243</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y244</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y245</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 Horz P &amp; P Slide Fwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 Horz P &amp; P Slide Rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-1 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-1 Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-2 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-2 Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-3 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-3 Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-4 On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 P &amp; P Gripper-4 Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 S, Plate Vert Lift Cyl Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S4 S, Plate Vert Lift Cyl Dn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X67</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X70</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X71</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X72</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X73</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S5 Vertical Slide Down</t>
   </si>
   <si>
@@ -1547,18 +929,6 @@
     <t>Station 5: Covar presense checking unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> S5 Verticle Slide Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S5 Verticle Slide Dn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y246</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y247</t>
-  </si>
-  <si>
     <t>Station 6: Welding str 2-4</t>
   </si>
   <si>
@@ -1577,75 +947,12 @@
     <t xml:space="preserve"> S6 Welding Ready</t>
   </si>
   <si>
-    <t xml:space="preserve"> X74</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X76</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X77</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X101</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S6 Ultrasonic Active (Spare)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y250</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y251</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y252</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S6 Welding Start </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S6 Welding Machine Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S6 Support Cyl Up T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S6 Support Cyl Dn T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S6 Support Cyl Up T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S6 Support Cyl Dn T4</t>
-  </si>
-  <si>
     <t>Station 7: Welding str 1-3</t>
   </si>
   <si>
-    <t xml:space="preserve"> X102</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X103</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X106</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X107</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S7 Job Holding Cyl Rev</t>
   </si>
   <si>
@@ -1661,66 +968,9 @@
     <t xml:space="preserve"> S7 Welding Ready</t>
   </si>
   <si>
-    <t xml:space="preserve"> S7 Welding On</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S7 Ultrasonic Active (Spare)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y254</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y256</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y257</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S7 Welding Start </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S7 Welding Machine Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S7 Support Cyl Up T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S7 Support Cyl Dn T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S7 Support Cyl Up T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S7 Support Cyl Dn T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X130</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X131</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S10 Leak Chk Press S/W Tr1 </t>
   </si>
   <si>
@@ -1742,111 +992,15 @@
     <t>Station 10: Leak checking unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y260</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y261</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y262</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y263</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S10 Leak Check Cyl Fwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S10 Leak Check Cyl Rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S10 Holding Cyl Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S10 Holding Cyl Dn</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S11 Horz P &amp; P Slide Rev Rs</t>
   </si>
   <si>
     <t>Station 11: Good ejection unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> S11 Horz P &amp; P Slide Fwd </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Horz P &amp; P Slide Rev </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper On T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper Off T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper On T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper Off T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper Off T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper On T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper On T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S11 Gripper Off T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y275</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y274</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y273</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y272</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y271</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y270</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y267</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y265</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y264</t>
-  </si>
-  <si>
     <t>Station 12: Cover loading unit</t>
   </si>
   <si>
-    <t xml:space="preserve"> X117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X122</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S12 Ejection Cont Chk Snr T1</t>
   </si>
   <si>
@@ -1859,18 +1013,6 @@
     <t xml:space="preserve"> S12 Ejection Cont Chk Snr T4</t>
   </si>
   <si>
-    <t xml:space="preserve"> S12 Bad Ejection Gripper On</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S12 Bad Ejection Gripper Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y276</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Y277</t>
-  </si>
-  <si>
     <t xml:space="preserve"> S2 Horz P &amp; P Cyl Rev Rs</t>
   </si>
   <si>
@@ -1878,6 +1020,510 @@
   </si>
   <si>
     <t xml:space="preserve"> S10 Holding Cyl Rev Tr2</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>Y15</t>
+  </si>
+  <si>
+    <t>Y16</t>
+  </si>
+  <si>
+    <t>Y17</t>
+  </si>
+  <si>
+    <t>Y20</t>
+  </si>
+  <si>
+    <t>Y23</t>
+  </si>
+  <si>
+    <t>Y24</t>
+  </si>
+  <si>
+    <t>Y25</t>
+  </si>
+  <si>
+    <t>Y26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Air Blow-1 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Air Blow-2 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Bowl Feeder Singling Vacuum TR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Bowl Feeder Singling Vacuum TR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Bowl Feeder Singling Vacuum TR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Bowl Feeder Singling Vacuum TR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Conveyor Motor On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Horizontal P &amp; P Slide Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Horizontal P &amp; P Slide Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Pick &amp; Place Gripper On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Pick &amp; Place Gripper Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Singling Plate Vert Lifting Cyl Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S1 Singling Plate Vert Lifting Cyl Dn</t>
+  </si>
+  <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>X37</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>Y27</t>
+  </si>
+  <si>
+    <t>Y31</t>
+  </si>
+  <si>
+    <t>Y32</t>
+  </si>
+  <si>
+    <t>Y37</t>
+  </si>
+  <si>
+    <t>Y45</t>
+  </si>
+  <si>
+    <t>Y46</t>
+  </si>
+  <si>
+    <t>Y47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Vacuum On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Job Relieve Air Blow On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Singling Plate Vacuum On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Air Blow On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Spare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Pick &amp; Place Vacuum On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Horizontal P &amp; P Cylinder Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Horizonal P &amp; P Cylinder Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Singling Plate Vert Lifting Cyl Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 Singling Plate Vert Lifting Cyl Dn</t>
+  </si>
+  <si>
+    <t>X45</t>
+  </si>
+  <si>
+    <t>X46</t>
+  </si>
+  <si>
+    <t>X47</t>
+  </si>
+  <si>
+    <t>X50</t>
+  </si>
+  <si>
+    <t>X51</t>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
+    <t>X53</t>
+  </si>
+  <si>
+    <t>X54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Up TR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Down TR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Up TR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Down TR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Up TR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Down TR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Up TR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Silicon Pressing Cylinder Down TR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Job Holding Cylinder Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 Job Holding Cylinder Reverse</t>
+  </si>
+  <si>
+    <t>X57</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X61</t>
+  </si>
+  <si>
+    <t>X62</t>
+  </si>
+  <si>
+    <t>X63</t>
+  </si>
+  <si>
+    <t>X64</t>
+  </si>
+  <si>
+    <t>X65</t>
+  </si>
+  <si>
+    <t>X66</t>
+  </si>
+  <si>
+    <t>Y52</t>
+  </si>
+  <si>
+    <t>Y53</t>
+  </si>
+  <si>
+    <t>Y54</t>
+  </si>
+  <si>
+    <t>Y55</t>
+  </si>
+  <si>
+    <t>Y56</t>
+  </si>
+  <si>
+    <t>Y57</t>
+  </si>
+  <si>
+    <t>Y60</t>
+  </si>
+  <si>
+    <t>Y61</t>
+  </si>
+  <si>
+    <t>Y62</t>
+  </si>
+  <si>
+    <t>Y63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Singling Vacuum-1 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Singling Vacuum-2 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Air Blow-1 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Air Blow-2 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Bowl Feeder-2 On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Spare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Horizontal P &amp; P Slide Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Horizontal P &amp; P Slide Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-1 On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-1 Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-2 On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-2 Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-3 On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-3 Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-4 On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Pick &amp; Place Gripper-4 Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Singling Plate Vert Lifting Cyl Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 Singling Plate Vert Lifting Cyl Down</t>
+  </si>
+  <si>
+    <t>X67</t>
+  </si>
+  <si>
+    <t>X70</t>
+  </si>
+  <si>
+    <t>X71</t>
+  </si>
+  <si>
+    <t>X72</t>
+  </si>
+  <si>
+    <t>X73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S5 Vertical Slide Up</t>
+  </si>
+  <si>
+    <t>X74</t>
+  </si>
+  <si>
+    <t>X75</t>
+  </si>
+  <si>
+    <t>X76</t>
+  </si>
+  <si>
+    <t>X77</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>X101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Spare</t>
+  </si>
+  <si>
+    <t>Y66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Weld Start </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Weld Machine Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Support Cylinder Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Support Cylinder Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Job Holding Cylinder Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6 Job Holding Cylinder Reverse</t>
+  </si>
+  <si>
+    <t>X102</t>
+  </si>
+  <si>
+    <t>X103</t>
+  </si>
+  <si>
+    <t>X104</t>
+  </si>
+  <si>
+    <t>X105</t>
+  </si>
+  <si>
+    <t>X106</t>
+  </si>
+  <si>
+    <t>X107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S7 Spare</t>
+  </si>
+  <si>
+    <t>Y71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S7 Weld Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S7 Weld Machine Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S7 Support Cylinder Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S7 Support Cylinder Down</t>
+  </si>
+  <si>
+    <t>X110</t>
+  </si>
+  <si>
+    <t>X111</t>
+  </si>
+  <si>
+    <t>X112</t>
+  </si>
+  <si>
+    <t>X113</t>
+  </si>
+  <si>
+    <t>X114</t>
+  </si>
+  <si>
+    <t>X115</t>
+  </si>
+  <si>
+    <t>X130</t>
+  </si>
+  <si>
+    <t>X131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S10 Leak Test Air Blow On/Off Tr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S10 Leak Test Air Blow On/Off Tr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S10 Leak Test Air Blow On/Off Tr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S10 Leak Test Air Blow On/Off Tr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S10 Holding Cylinder Fwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S10 Holding Cylinder Rev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S11 Horizontal P&amp;P Slide Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S11 Horizontal P&amp;P Slide Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S11 Gripper On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S11 Gripper Off</t>
+  </si>
+  <si>
+    <t>X117</t>
+  </si>
+  <si>
+    <t>X120</t>
+  </si>
+  <si>
+    <t>X121</t>
+  </si>
+  <si>
+    <t>X122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S12 Gripper On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S12 Gripper Off</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1612,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2014,14 +1660,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2124,47 +1764,10 @@
       <left style="thick">
         <color theme="7"/>
       </left>
-      <right style="thick">
-        <color theme="7"/>
-      </right>
-      <top style="thick">
-        <color theme="7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="7"/>
-      </left>
       <right/>
       <top style="thick">
         <color theme="7"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="7"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="7"/>
-      </top>
-      <bottom style="thick">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="7"/>
-      </left>
-      <right style="thick">
-        <color theme="7"/>
-      </right>
-      <top/>
       <bottom style="thick">
         <color theme="7"/>
       </bottom>
@@ -2181,19 +1784,6 @@
       <bottom style="thick">
         <color theme="7"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2284,39 +1874,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
+      <top/>
       <bottom style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2325,24 +1887,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2351,32 +1907,19 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2384,44 +1927,97 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2446,7 +2042,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,53 +2064,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2831,14 +2439,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -2889,14 +2497,14 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2985,14 +2593,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -3045,14 +2653,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -3107,14 +2715,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -3185,14 +2793,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -3211,14 +2819,14 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -3257,14 +2865,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -3303,48 +2911,48 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -3383,14 +2991,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
@@ -3409,14 +3017,14 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -3436,6 +3044,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A33:F33"/>
@@ -3445,11 +3058,6 @@
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A34:F35"/>
     <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3460,148 +3068,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB5B78E-C3E8-4E5C-AA5F-A01E38451783}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F10"/>
+    <sheetView topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="33" style="41" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="41.77734375" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="66" t="s">
-        <v>567</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="H2" s="69" t="s">
-        <v>567</v>
-      </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="H3" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="H4" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="H5" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="D6" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="D7" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="D8" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="D9" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="H2" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="D6" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="D7" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="D8" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="D9" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:F2"/>
@@ -3613,138 +3317,143 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09543F97-6536-40BF-89A4-EC8F160DD67C}">
-  <dimension ref="A5:I17"/>
+  <dimension ref="A5:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="41" style="38" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="75" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="G6" s="66" t="s">
-        <v>577</v>
-      </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="46" t="s">
-        <v>597</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>578</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="G7" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="G6" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="G7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>579</v>
-      </c>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>580</v>
-      </c>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
-        <v>594</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>582</v>
-      </c>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="44" t="s">
-        <v>592</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>583</v>
-      </c>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="46" t="s">
-        <v>591</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>585</v>
-      </c>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>584</v>
-      </c>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>586</v>
-      </c>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>587</v>
-      </c>
-      <c r="D16" s="46"/>
-    </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>235</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G6:I6"/>
@@ -3756,94 +3465,100 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA31B0-51D4-41C1-AED2-0E5ABE75A9FE}">
-  <dimension ref="A5:K14"/>
+  <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="34.21875" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="34.21875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="66" t="s">
-        <v>598</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="I6" s="69" t="s">
-        <v>598</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="I7" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
+      <c r="I6" s="83" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="I7" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="I8" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>235</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="I8" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E6:G6"/>
@@ -3891,14 +3606,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -3965,14 +3680,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -4157,14 +3872,14 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -4321,14 +4036,14 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -4471,14 +4186,14 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -4677,14 +4392,14 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
@@ -4715,14 +4430,14 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
     </row>
     <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
@@ -4837,14 +4552,14 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -4931,32 +4646,32 @@
       <c r="F77" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -5127,14 +4842,14 @@
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
@@ -5277,14 +4992,14 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
     </row>
     <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
@@ -5316,6 +5031,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A95:F95"/>
     <mergeCell ref="A106:F106"/>
     <mergeCell ref="A59:F59"/>
@@ -5323,11 +5043,6 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A79:F80"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5336,17 +5051,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24F7292-2913-4DCC-958B-F87787AA7203}">
-  <dimension ref="A3:U31"/>
+  <dimension ref="A3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
     <col min="6" max="6" width="53.44140625" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="8" width="40.6640625" customWidth="1"/>
@@ -5355,725 +5070,613 @@
     <col min="11" max="11" width="7.21875" customWidth="1"/>
     <col min="12" max="12" width="38.21875" customWidth="1"/>
     <col min="13" max="13" width="5.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" customWidth="1"/>
-    <col min="17" max="17" width="5.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" customWidth="1"/>
-    <col min="20" max="20" width="28.33203125" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" customWidth="1"/>
+    <col min="16" max="16" width="42.21875" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" customWidth="1"/>
+    <col min="19" max="19" width="43.5546875" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" customWidth="1"/>
+    <col min="22" max="22" width="42.88671875" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="3:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="3:21" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-    </row>
-    <row r="12" spans="3:21" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="G12" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="O12" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-    </row>
-    <row r="13" spans="3:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="G13" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="O13" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-    </row>
-    <row r="14" spans="3:21" ht="27.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="G14" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="M14" s="29"/>
-      <c r="O14" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="3:21" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="G15" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="23" t="s">
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="O12" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="33"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="D16" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="O15" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-    </row>
-    <row r="16" spans="3:21" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="G16" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="24" t="s">
+      <c r="P16" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="33"/>
+    </row>
+    <row r="17" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="D17" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="O16" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-    </row>
-    <row r="17" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="G17" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="23" t="s">
+      <c r="P17" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="33"/>
+    </row>
+    <row r="18" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="D18" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="O17" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="S17" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-    </row>
-    <row r="18" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="G18" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="24" t="s">
+      <c r="P18" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="33"/>
+    </row>
+    <row r="19" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="D19" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="O18" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-    </row>
-    <row r="19" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="G19" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="23" t="s">
+      <c r="P19" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="D20" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="O19" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="1:21" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="G20" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="24" t="s">
+      <c r="P20" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="33"/>
+    </row>
+    <row r="21" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="D21" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="O20" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="S20" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-    </row>
-    <row r="21" spans="1:21" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="G21" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="23" t="s">
+      <c r="P21" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="D22" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="O21" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-    </row>
-    <row r="22" spans="1:21" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="G22" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="24" t="s">
+      <c r="P22" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33"/>
+    </row>
+    <row r="23" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="D23" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="O23" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="O22" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-    </row>
-    <row r="23" spans="1:21" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="23" t="s">
+      <c r="P23" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33"/>
+    </row>
+    <row r="24" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="D24" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="O24" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="O23" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-    </row>
-    <row r="24" spans="1:21" ht="27.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="G24" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="24" t="s">
+      <c r="P24" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33"/>
+    </row>
+    <row r="25" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="L24" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="M24" s="29"/>
-      <c r="O24" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="G25" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="23" t="s">
+      <c r="D25" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="O25" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33"/>
+    </row>
+    <row r="26" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="M25" s="29"/>
-      <c r="O25" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="G26" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="M26" s="29"/>
-      <c r="O26" s="24" t="s">
-        <v>301</v>
+      <c r="D26" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
+      <c r="O26" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="S26" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G27" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="M27" s="29"/>
-      <c r="O27" s="23" t="s">
-        <v>256</v>
+        <v>359</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33"/>
+    </row>
+    <row r="27" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="25"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="O27" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="S27" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G28" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="M28" s="29"/>
-      <c r="O28" s="24" t="s">
-        <v>257</v>
+        <v>360</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33"/>
+    </row>
+    <row r="28" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="25"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="O28" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="S28" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="28"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>361</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33"/>
+    </row>
+    <row r="29" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="18"/>
+      <c r="O29" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="U12:W12"/>
     <mergeCell ref="K12:M12"/>
-    <mergeCell ref="O12:U12"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C11:E11"/>
@@ -6086,10 +5689,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6101,290 +5704,458 @@
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="35.77734375" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="43.77734375" style="38" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" style="37" customWidth="1"/>
+    <col min="18" max="18" width="43.5546875" style="38" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" customWidth="1"/>
+    <col min="22" max="22" width="42.88671875" customWidth="1"/>
+    <col min="23" max="23" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+    <row r="1" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="21"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="55"/>
+      <c r="C6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="21"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="21"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="21"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="E10" s="11"/>
+      <c r="F10" s="21"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="E11" s="11"/>
+      <c r="F11" s="21"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="I15" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="N15" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="25"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="25"/>
+      <c r="I16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="25"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="25"/>
+      <c r="I17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="25"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="25"/>
+      <c r="I18" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="25"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="25"/>
+      <c r="I19" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="25"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="25"/>
+      <c r="I20" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="25"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="25"/>
+      <c r="I21" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="25"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="25"/>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="25"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="25"/>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="32"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="32"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="32"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="32"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="32"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="17"/>
-      <c r="F10" s="32"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="17"/>
-      <c r="F11" s="32"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="I15" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-    </row>
-    <row r="16" spans="2:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="I16" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="I17" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="I18" s="20" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="25"/>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="25"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="25"/>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="N25" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="25"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="25"/>
+      <c r="L26">
+        <v>11</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="P26" s="19"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="25"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="25"/>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="25"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="25"/>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="25"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="25"/>
+      <c r="L29">
+        <v>14</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="25"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="25"/>
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>16</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="I19" s="21" t="s">
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="O33" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="I20" s="20" t="s">
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="I21" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="14:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="U15:W15"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E15:G15"/>
@@ -6399,252 +6170,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H2" s="52"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H3" s="52"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H4" s="52"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="44"/>
+      <c r="C6" s="9"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="24"/>
+      <c r="C7" s="9"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="44"/>
+      <c r="C8" s="9"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="39"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="G10" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="15" t="s">
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H4" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="H5" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="H6" s="16" t="s">
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37"/>
-      <c r="C7" s="10"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="G10" s="69" t="s">
-        <v>409</v>
-      </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="G11" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="G12" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="G13" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="35" t="s">
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="G14" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="G15" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="G16" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="G17" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="G18" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="G19" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="2:9" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="D20" s="16"/>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:9" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
     <row r="22" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
@@ -6658,377 +6444,440 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75962AC6-9292-4620-A39C-10A03F6AAB43}">
-  <dimension ref="B4:M27"/>
+  <dimension ref="B4:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="32.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="45.21875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1"/>
+    <col min="14" max="14" width="43.77734375" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-    </row>
-    <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="63" t="s">
-        <v>448</v>
-      </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="33" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="45"/>
+      <c r="C5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="45"/>
+      <c r="C7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+      <c r="C8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="44"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E10" s="21"/>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E11" s="21"/>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="E12" s="21"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="21">
+        <v>2</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="21">
+        <v>4</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21">
+        <v>6</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="21">
+        <v>8</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21">
+        <v>10</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="21">
+        <v>12</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="21">
+        <v>14</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="F15" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="K16" s="23"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="F17" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="F19" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="F20" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24" t="s">
-        <v>473</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="F21" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="K21" s="23"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="K22" s="23"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="F23" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="F24" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="K24" s="23"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F25" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="K25" s="23"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F26" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="K26" s="23"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="6:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="6:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="M14:O14"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7036,104 +6885,120 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4806E04C-CFC8-4524-BE6B-28A4C478F625}">
-  <dimension ref="B6:J13"/>
+  <dimension ref="B4:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:J8"/>
+    <sheetView topLeftCell="C4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="38" style="38" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="37" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="66" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-    </row>
-    <row r="8" spans="2:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="G8" s="69" t="s">
-        <v>502</v>
-      </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="2:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="G9" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="2:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="G10" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="2:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="2:10" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="D12" s="38"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+    </row>
+    <row r="8" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="G8" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="G9" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="84" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="G10" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G8:J8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H4:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7141,152 +7006,211 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A667160-0901-4AC7-B3FD-8246C0F85466}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
     <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="69" t="s">
-        <v>507</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="F5" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="F6" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="F7" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
-        <v>519</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="F8" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41" t="s">
-        <v>520</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="F5" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="F6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="25"/>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="F7" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="25"/>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="F8" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="25"/>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="F9" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="43" t="s">
-        <v>521</v>
+        <v>456</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="F9" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="25"/>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="F10" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="41" t="s">
-        <v>522</v>
+        <v>457</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="F10" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="25"/>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="35" t="s">
+        <v>168</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="F11" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>456</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="F11" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="25"/>
+      <c r="J11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="F12" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="J12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="J13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="J14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7302,140 +7226,181 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67E477A-2C85-42F6-86F2-A515A4E0B111}">
-  <dimension ref="B5:H14"/>
+  <dimension ref="B5:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="F7" s="69" t="s">
-        <v>529</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-    </row>
-    <row r="8" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="F8" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="F9" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>548</v>
-      </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="F10" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="F11" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="F12" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>551</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="2:8" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="F13" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="2:8" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B6:D6"/>

--- a/Source/dữ liệu/Input,Output máy nút chặn.xlsx
+++ b/Source/dữ liệu/Input,Output máy nút chặn.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wembley Project\ar-vr_Wembley_AR\Source\dữ liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khang\PDA\Wembley AR\May nut chan\Source\dữ liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14756F8-3AB2-4C5D-8539-3D66A6C76F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1529,8 +1528,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,6 +1609,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1887,7 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2018,6 +2024,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2066,9 +2073,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2076,6 +2080,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2116,6 +2123,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2401,23 +2409,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2438,17 +2446,17 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2464,7 +2472,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2480,7 +2488,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2496,17 +2504,17 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2522,7 +2530,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2538,7 +2546,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -2574,7 +2582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2592,17 +2600,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2618,7 +2626,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -2634,7 +2642,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2652,17 +2660,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -2678,7 +2686,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2696,7 +2704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -2714,17 +2722,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2740,7 +2748,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -2756,7 +2764,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -2792,17 +2800,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2818,17 +2826,17 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2846,7 +2854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2864,17 +2872,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2892,7 +2900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -2910,51 +2918,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -2990,17 +2998,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3016,17 +3024,17 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3044,11 +3052,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A33:F33"/>
@@ -3058,6 +3061,11 @@
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A34:F35"/>
     <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3065,39 +3073,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB5B78E-C3E8-4E5C-AA5F-A01E38451783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="37" customWidth="1"/>
     <col min="5" max="5" width="33" style="41" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="37" customWidth="1"/>
-    <col min="9" max="9" width="41.77734375" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="80" t="s">
+    <row r="1" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82"/>
-      <c r="H2" s="77" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="H2" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="29" t="s">
         <v>472</v>
       </c>
@@ -3116,7 +3124,7 @@
       </c>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="30" t="s">
         <v>473</v>
       </c>
@@ -3135,7 +3143,7 @@
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="29" t="s">
         <v>474</v>
       </c>
@@ -3154,7 +3162,7 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="D6" s="30" t="s">
@@ -3175,7 +3183,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="D7" s="29" t="s">
@@ -3196,7 +3204,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="D8" s="30" t="s">
@@ -3217,7 +3225,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="D9" s="29" t="s">
@@ -3238,7 +3246,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="30" t="s">
         <v>479</v>
       </c>
@@ -3257,7 +3265,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11">
         <v>9</v>
       </c>
@@ -3269,7 +3277,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12">
         <v>10</v>
       </c>
@@ -3281,7 +3289,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13">
         <v>11</v>
       </c>
@@ -3293,7 +3301,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14">
         <v>12</v>
       </c>
@@ -3305,7 +3313,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:F2"/>
@@ -3316,39 +3324,39 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09543F97-6536-40BF-89A4-EC8F160DD67C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="41" style="38" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="37" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="89" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="G6" s="71" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="G6" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>210</v>
       </c>
@@ -3364,7 +3372,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -3376,7 +3384,7 @@
       </c>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="50" t="s">
         <v>218</v>
       </c>
@@ -3385,7 +3393,7 @@
       </c>
       <c r="D9" s="28"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="51" t="s">
         <v>219</v>
       </c>
@@ -3394,7 +3402,7 @@
       </c>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="50" t="s">
         <v>220</v>
       </c>
@@ -3403,7 +3411,7 @@
       </c>
       <c r="D11" s="28"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="51" t="s">
         <v>221</v>
       </c>
@@ -3412,7 +3420,7 @@
       </c>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="50" t="s">
         <v>222</v>
       </c>
@@ -3421,7 +3429,7 @@
       </c>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="51" t="s">
         <v>223</v>
       </c>
@@ -3430,7 +3438,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
         <v>226</v>
       </c>
@@ -3439,7 +3447,7 @@
       </c>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="51" t="s">
         <v>227</v>
       </c>
@@ -3448,12 +3456,12 @@
       </c>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G6:I6"/>
@@ -3464,39 +3472,39 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA31B0-51D4-41C1-AED2-0E5ABE75A9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="38" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="37" customWidth="1"/>
-    <col min="10" max="10" width="34.21875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="80" t="s">
+    <row r="5" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="81" t="s">
         <v>320</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
-      <c r="I6" s="83" t="s">
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="I6" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="29" t="s">
         <v>490</v>
       </c>
@@ -3512,7 +3520,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -3531,7 +3539,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="29" t="s">
         <v>492</v>
       </c>
@@ -3540,7 +3548,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="30" t="s">
         <v>493</v>
       </c>
@@ -3549,16 +3557,16 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E6:G6"/>
@@ -3569,23 +3577,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3605,17 +3613,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3631,7 +3639,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3647,7 +3655,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3663,7 +3671,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3679,17 +3687,17 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3703,7 +3711,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -3717,7 +3725,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3731,7 +3739,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -3745,7 +3753,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3759,7 +3767,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -3773,7 +3781,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -3787,7 +3795,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -3801,7 +3809,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -3815,7 +3823,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -3829,7 +3837,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -3843,7 +3851,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -3857,7 +3865,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -3871,17 +3879,17 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+    <row r="21" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3895,7 +3903,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -3909,7 +3917,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -3923,7 +3931,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -3937,7 +3945,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -3951,7 +3959,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -3965,7 +3973,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7</v>
       </c>
@@ -3979,7 +3987,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
@@ -3993,7 +4001,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -4007,7 +4015,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -4021,7 +4029,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>11</v>
       </c>
@@ -4035,17 +4043,17 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="56" t="s">
+    <row r="33" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -4059,7 +4067,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -4073,7 +4081,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -4087,7 +4095,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -4101,7 +4109,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -4115,7 +4123,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -4129,7 +4137,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -4143,7 +4151,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -4157,7 +4165,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>9</v>
       </c>
@@ -4171,7 +4179,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>10</v>
       </c>
@@ -4185,17 +4193,17 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -4209,7 +4217,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -4223,7 +4231,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -4237,7 +4245,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -4251,7 +4259,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -4265,7 +4273,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>6</v>
       </c>
@@ -4279,7 +4287,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>7</v>
       </c>
@@ -4293,7 +4301,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>8</v>
       </c>
@@ -4307,7 +4315,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -4321,7 +4329,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>10</v>
       </c>
@@ -4335,7 +4343,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>11</v>
       </c>
@@ -4349,7 +4357,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>12</v>
       </c>
@@ -4363,7 +4371,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>13</v>
       </c>
@@ -4377,7 +4385,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>14</v>
       </c>
@@ -4391,17 +4399,17 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="56" t="s">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -4415,7 +4423,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2</v>
       </c>
@@ -4429,17 +4437,17 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="56" t="s">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -4453,7 +4461,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2</v>
       </c>
@@ -4467,7 +4475,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>3</v>
       </c>
@@ -4481,7 +4489,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -4495,7 +4503,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>5</v>
       </c>
@@ -4509,7 +4517,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>6</v>
       </c>
@@ -4523,7 +4531,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>7</v>
       </c>
@@ -4537,7 +4545,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>8</v>
       </c>
@@ -4551,17 +4559,17 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="56" t="s">
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4575,7 +4583,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -4589,7 +4597,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>3</v>
       </c>
@@ -4603,7 +4611,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>4</v>
       </c>
@@ -4617,7 +4625,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>5</v>
       </c>
@@ -4631,7 +4639,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>6</v>
       </c>
@@ -4645,35 +4653,35 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="63" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="63"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="56" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -4687,7 +4695,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -4701,7 +4709,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>3</v>
       </c>
@@ -4715,7 +4723,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>4</v>
       </c>
@@ -4729,7 +4737,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>5</v>
       </c>
@@ -4743,7 +4751,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>6</v>
       </c>
@@ -4757,7 +4765,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>7</v>
       </c>
@@ -4771,7 +4779,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>8</v>
       </c>
@@ -4785,7 +4793,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>9</v>
       </c>
@@ -4799,7 +4807,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>10</v>
       </c>
@@ -4813,7 +4821,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>11</v>
       </c>
@@ -4827,7 +4835,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>12</v>
       </c>
@@ -4841,17 +4849,17 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="56" t="s">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -4865,7 +4873,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -4879,7 +4887,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>3</v>
       </c>
@@ -4893,7 +4901,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>4</v>
       </c>
@@ -4907,7 +4915,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>5</v>
       </c>
@@ -4921,7 +4929,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>6</v>
       </c>
@@ -4935,7 +4943,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>7</v>
       </c>
@@ -4949,7 +4957,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>8</v>
       </c>
@@ -4963,7 +4971,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>9</v>
       </c>
@@ -4977,7 +4985,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>10</v>
       </c>
@@ -4991,17 +4999,17 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="56" t="s">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -5015,7 +5023,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -5031,11 +5039,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A95:F95"/>
     <mergeCell ref="A106:F106"/>
     <mergeCell ref="A59:F59"/>
@@ -5043,6 +5046,11 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A79:F80"/>
     <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5050,126 +5058,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24F7292-2913-4DCC-958B-F87787AA7203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12:W12"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="38.21875" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" customWidth="1"/>
-    <col min="16" max="16" width="42.21875" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" customWidth="1"/>
-    <col min="19" max="19" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="45.42578125" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="43.5703125" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" customWidth="1"/>
-    <col min="22" max="22" width="42.88671875" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="42.85546875" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="12"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="12"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="71" t="s">
+    <row r="11" spans="1:26" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="O12" s="64" t="s">
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="O12" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>11</v>
@@ -5185,8 +5192,8 @@
       <c r="K13" s="25"/>
       <c r="L13" s="32"/>
       <c r="M13" s="33"/>
-      <c r="N13">
-        <v>1</v>
+      <c r="N13" s="91">
+        <v>0</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>340</v>
@@ -5199,9 +5206,9 @@
       <c r="S13" s="31"/>
       <c r="T13" s="33"/>
     </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>12</v>
@@ -5217,8 +5224,8 @@
       <c r="K14" s="25"/>
       <c r="L14" s="32"/>
       <c r="M14" s="33"/>
-      <c r="N14">
-        <v>2</v>
+      <c r="N14" s="91">
+        <v>1</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>341</v>
@@ -5231,9 +5238,9 @@
       <c r="S14" s="31"/>
       <c r="T14" s="33"/>
     </row>
-    <row r="15" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>3</v>
+    <row r="15" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56">
+        <v>2</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>328</v>
@@ -5249,8 +5256,8 @@
       <c r="K15" s="25"/>
       <c r="L15" s="32"/>
       <c r="M15" s="33"/>
-      <c r="N15">
-        <v>3</v>
+      <c r="N15" s="91">
+        <v>2</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>342</v>
@@ -5263,9 +5270,9 @@
       <c r="S15" s="31"/>
       <c r="T15" s="33"/>
     </row>
-    <row r="16" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>4</v>
+    <row r="16" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="56">
+        <v>3</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>329</v>
@@ -5281,8 +5288,8 @@
       <c r="K16" s="25"/>
       <c r="L16" s="32"/>
       <c r="M16" s="33"/>
-      <c r="N16">
-        <v>4</v>
+      <c r="N16" s="91">
+        <v>3</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>343</v>
@@ -5295,9 +5302,9 @@
       <c r="S16" s="34"/>
       <c r="T16" s="33"/>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>5</v>
+    <row r="17" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="56">
+        <v>4</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>330</v>
@@ -5313,8 +5320,8 @@
       <c r="K17" s="25"/>
       <c r="L17" s="32"/>
       <c r="M17" s="33"/>
-      <c r="N17">
-        <v>5</v>
+      <c r="N17" s="91">
+        <v>4</v>
       </c>
       <c r="O17" s="19" t="s">
         <v>344</v>
@@ -5327,9 +5334,9 @@
       <c r="S17" s="34"/>
       <c r="T17" s="33"/>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>6</v>
+    <row r="18" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56">
+        <v>5</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>331</v>
@@ -5345,8 +5352,8 @@
       <c r="K18" s="25"/>
       <c r="L18" s="32"/>
       <c r="M18" s="33"/>
-      <c r="N18">
-        <v>6</v>
+      <c r="N18" s="91">
+        <v>5</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>345</v>
@@ -5359,9 +5366,9 @@
       <c r="S18" s="34"/>
       <c r="T18" s="33"/>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>7</v>
+    <row r="19" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56">
+        <v>6</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>332</v>
@@ -5377,8 +5384,8 @@
       <c r="K19" s="25"/>
       <c r="L19" s="32"/>
       <c r="M19" s="33"/>
-      <c r="N19">
-        <v>7</v>
+      <c r="N19" s="91">
+        <v>6</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>346</v>
@@ -5391,9 +5398,9 @@
       <c r="S19" s="34"/>
       <c r="T19" s="33"/>
     </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>8</v>
+    <row r="20" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="56">
+        <v>7</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>333</v>
@@ -5409,8 +5416,8 @@
       <c r="K20" s="25"/>
       <c r="L20" s="32"/>
       <c r="M20" s="33"/>
-      <c r="N20">
-        <v>8</v>
+      <c r="N20" s="91">
+        <v>7</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>347</v>
@@ -5423,9 +5430,9 @@
       <c r="S20" s="34"/>
       <c r="T20" s="33"/>
     </row>
-    <row r="21" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>9</v>
+    <row r="21" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="56">
+        <v>8</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>334</v>
@@ -5441,8 +5448,8 @@
       <c r="K21" s="25"/>
       <c r="L21" s="32"/>
       <c r="M21" s="33"/>
-      <c r="N21">
-        <v>9</v>
+      <c r="N21" s="91">
+        <v>8</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>348</v>
@@ -5455,9 +5462,9 @@
       <c r="S21" s="34"/>
       <c r="T21" s="33"/>
     </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>10</v>
+    <row r="22" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="56">
+        <v>9</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>335</v>
@@ -5473,8 +5480,8 @@
       <c r="K22" s="25"/>
       <c r="L22" s="32"/>
       <c r="M22" s="33"/>
-      <c r="N22">
-        <v>10</v>
+      <c r="N22" s="91">
+        <v>9</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>349</v>
@@ -5487,9 +5494,9 @@
       <c r="S22" s="32"/>
       <c r="T22" s="33"/>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>11</v>
+    <row r="23" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="56">
+        <v>10</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>336</v>
@@ -5507,6 +5514,9 @@
       <c r="K23" s="25"/>
       <c r="L23" s="32"/>
       <c r="M23" s="33"/>
+      <c r="N23" s="91">
+        <v>10</v>
+      </c>
       <c r="O23" s="19" t="s">
         <v>350</v>
       </c>
@@ -5518,9 +5528,9 @@
       <c r="S23" s="32"/>
       <c r="T23" s="33"/>
     </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>12</v>
+    <row r="24" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="56">
+        <v>11</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>337</v>
@@ -5536,6 +5546,9 @@
       <c r="K24" s="25"/>
       <c r="L24" s="32"/>
       <c r="M24" s="33"/>
+      <c r="N24" s="91">
+        <v>11</v>
+      </c>
       <c r="O24" s="35" t="s">
         <v>351</v>
       </c>
@@ -5547,9 +5560,9 @@
       <c r="S24" s="32"/>
       <c r="T24" s="33"/>
     </row>
-    <row r="25" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>13</v>
+    <row r="25" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="56">
+        <v>12</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>338</v>
@@ -5565,6 +5578,9 @@
       <c r="K25" s="25"/>
       <c r="L25" s="32"/>
       <c r="M25" s="33"/>
+      <c r="N25" s="91">
+        <v>12</v>
+      </c>
       <c r="O25" s="19" t="s">
         <v>88</v>
       </c>
@@ -5576,9 +5592,9 @@
       <c r="S25" s="32"/>
       <c r="T25" s="33"/>
     </row>
-    <row r="26" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>14</v>
+    <row r="26" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="56">
+        <v>13</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>339</v>
@@ -5594,6 +5610,9 @@
       <c r="K26" s="25"/>
       <c r="L26" s="32"/>
       <c r="M26" s="33"/>
+      <c r="N26" s="91">
+        <v>13</v>
+      </c>
       <c r="O26" s="35" t="s">
         <v>79</v>
       </c>
@@ -5605,7 +5624,7 @@
       <c r="S26" s="32"/>
       <c r="T26" s="33"/>
     </row>
-    <row r="27" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="25"/>
       <c r="H27" s="32"/>
       <c r="I27" s="11"/>
@@ -5613,6 +5632,9 @@
       <c r="K27" s="25"/>
       <c r="L27" s="32"/>
       <c r="M27" s="33"/>
+      <c r="N27" s="91">
+        <v>14</v>
+      </c>
       <c r="O27" s="19" t="s">
         <v>80</v>
       </c>
@@ -5624,7 +5646,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="33"/>
     </row>
-    <row r="28" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="25"/>
       <c r="H28" s="32"/>
       <c r="I28" s="11"/>
@@ -5632,6 +5654,9 @@
       <c r="K28" s="25"/>
       <c r="L28" s="32"/>
       <c r="M28" s="33"/>
+      <c r="N28" s="91">
+        <v>15</v>
+      </c>
       <c r="O28" s="35" t="s">
         <v>81</v>
       </c>
@@ -5645,6 +5670,9 @@
     </row>
     <row r="29" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="18"/>
+      <c r="N29" s="91">
+        <v>16</v>
+      </c>
       <c r="O29" s="19" t="s">
         <v>82</v>
       </c>
@@ -5654,6 +5682,9 @@
       <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="91">
+        <v>17</v>
+      </c>
       <c r="O30" s="35" t="s">
         <v>85</v>
       </c>
@@ -5663,6 +5694,9 @@
       <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="91">
+        <v>18</v>
+      </c>
       <c r="O31" s="19" t="s">
         <v>86</v>
       </c>
@@ -5671,7 +5705,7 @@
       </c>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="O12:Q12"/>
@@ -5684,135 +5718,136 @@
     <mergeCell ref="G12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="43.77734375" style="38" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="37" customWidth="1"/>
-    <col min="18" max="18" width="43.5546875" style="38" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" customWidth="1"/>
-    <col min="22" max="22" width="42.88671875" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="37" customWidth="1"/>
+    <col min="15" max="15" width="43.7109375" style="38" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="43.5703125" style="38" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="42.85546875" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
       <c r="H4" s="54"/>
     </row>
-    <row r="5" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="21"/>
       <c r="H5" s="54"/>
     </row>
-    <row r="6" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="55"/>
       <c r="C6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="21"/>
       <c r="H6" s="54"/>
     </row>
-    <row r="7" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="55"/>
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="21"/>
       <c r="H8" s="54"/>
     </row>
-    <row r="9" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="21"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E10" s="11"/>
       <c r="F10" s="21"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E11" s="11"/>
       <c r="F11" s="21"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="N15" s="64" t="s">
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="N15" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="25"/>
       <c r="F16" s="32"/>
       <c r="G16" s="25"/>
@@ -5837,7 +5872,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="25"/>
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
@@ -5862,7 +5897,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="25"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25"/>
@@ -5887,7 +5922,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="25"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25"/>
@@ -5912,7 +5947,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="25"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25"/>
@@ -5937,7 +5972,7 @@
       <c r="R20" s="32"/>
       <c r="S20" s="33"/>
     </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="25"/>
       <c r="F21" s="32"/>
       <c r="G21" s="25"/>
@@ -5962,7 +5997,7 @@
       <c r="R21" s="32"/>
       <c r="S21" s="33"/>
     </row>
-    <row r="22" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="25"/>
       <c r="F22" s="32"/>
       <c r="G22" s="25"/>
@@ -5980,7 +6015,7 @@
       <c r="R22" s="32"/>
       <c r="S22" s="33"/>
     </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="25"/>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
@@ -5998,7 +6033,7 @@
       <c r="R23" s="32"/>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -6019,7 +6054,7 @@
       <c r="R24" s="32"/>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="25"/>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
@@ -6037,7 +6072,7 @@
       <c r="R25" s="32"/>
       <c r="S25" s="33"/>
     </row>
-    <row r="26" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="25"/>
       <c r="F26" s="32"/>
       <c r="G26" s="25"/>
@@ -6052,7 +6087,7 @@
       </c>
       <c r="P26" s="19"/>
     </row>
-    <row r="27" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="25"/>
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
@@ -6067,7 +6102,7 @@
       </c>
       <c r="P27" s="19"/>
     </row>
-    <row r="28" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="25"/>
       <c r="F28" s="32"/>
       <c r="G28" s="25"/>
@@ -6082,7 +6117,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="25"/>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
@@ -6097,7 +6132,7 @@
       </c>
       <c r="P29" s="19"/>
     </row>
-    <row r="30" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="25"/>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
@@ -6112,7 +6147,7 @@
       </c>
       <c r="P30" s="19"/>
     </row>
-    <row r="31" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L31">
         <v>16</v>
       </c>
@@ -6124,7 +6159,7 @@
       </c>
       <c r="P31" s="19"/>
     </row>
-    <row r="32" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N32" s="19" t="s">
         <v>118</v>
       </c>
@@ -6133,7 +6168,7 @@
       </c>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N33" s="35" t="s">
         <v>119</v>
       </c>
@@ -6142,7 +6177,7 @@
       </c>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N34" s="19" t="s">
         <v>120</v>
       </c>
@@ -6151,7 +6186,7 @@
       </c>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="14:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="14:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="N15:P15"/>
@@ -6167,80 +6202,83 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="37" customWidth="1"/>
-    <col min="8" max="8" width="33.77734375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="41" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H1" s="74"/>
       <c r="I1" s="74"/>
     </row>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H2" s="52"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H3" s="52"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H4" s="52"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="23"/>
       <c r="H5" s="52"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="44"/>
       <c r="C6" s="9"/>
       <c r="H6" s="52"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="9"/>
       <c r="H7" s="39"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="44"/>
       <c r="C8" s="9"/>
       <c r="H8" s="40"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="39"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="72" t="s">
+    <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="G10" s="76" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="G10" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="B11" s="19" t="s">
         <v>128</v>
       </c>
@@ -6248,8 +6286,8 @@
         <v>394</v>
       </c>
       <c r="D11" s="42"/>
-      <c r="E11">
-        <v>1</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>233</v>
@@ -6259,7 +6297,10 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" s="35" t="s">
         <v>129</v>
       </c>
@@ -6267,8 +6308,8 @@
         <v>395</v>
       </c>
       <c r="D12" s="42"/>
-      <c r="E12">
-        <v>2</v>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>386</v>
@@ -6278,7 +6319,10 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56">
+        <v>2</v>
+      </c>
       <c r="B13" s="19" t="s">
         <v>130</v>
       </c>
@@ -6286,8 +6330,8 @@
         <v>396</v>
       </c>
       <c r="D13" s="42"/>
-      <c r="E13">
-        <v>3</v>
+      <c r="F13" s="56">
+        <v>2</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>387</v>
@@ -6297,7 +6341,10 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56">
+        <v>3</v>
+      </c>
       <c r="B14" s="35" t="s">
         <v>131</v>
       </c>
@@ -6305,8 +6352,8 @@
         <v>397</v>
       </c>
       <c r="D14" s="42"/>
-      <c r="E14">
-        <v>4</v>
+      <c r="F14" s="56">
+        <v>3</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>388</v>
@@ -6316,7 +6363,10 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56">
+        <v>4</v>
+      </c>
       <c r="B15" s="19" t="s">
         <v>132</v>
       </c>
@@ -6324,8 +6374,8 @@
         <v>398</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15">
-        <v>5</v>
+      <c r="F15" s="56">
+        <v>4</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>389</v>
@@ -6335,7 +6385,10 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56">
+        <v>5</v>
+      </c>
       <c r="B16" s="35" t="s">
         <v>133</v>
       </c>
@@ -6343,8 +6396,8 @@
         <v>399</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16">
-        <v>6</v>
+      <c r="F16" s="56">
+        <v>5</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>390</v>
@@ -6354,7 +6407,10 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56">
+        <v>6</v>
+      </c>
       <c r="B17" s="19" t="s">
         <v>134</v>
       </c>
@@ -6362,8 +6418,8 @@
         <v>400</v>
       </c>
       <c r="D17" s="42"/>
-      <c r="E17">
-        <v>7</v>
+      <c r="F17" s="56">
+        <v>6</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>391</v>
@@ -6373,7 +6429,10 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56">
+        <v>7</v>
+      </c>
       <c r="B18" s="35" t="s">
         <v>135</v>
       </c>
@@ -6381,8 +6440,8 @@
         <v>401</v>
       </c>
       <c r="D18" s="42"/>
-      <c r="E18">
-        <v>8</v>
+      <c r="F18" s="56">
+        <v>7</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>392</v>
@@ -6392,7 +6451,10 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56">
+        <v>8</v>
+      </c>
       <c r="B19" s="19" t="s">
         <v>136</v>
       </c>
@@ -6400,8 +6462,8 @@
         <v>402</v>
       </c>
       <c r="D19" s="42"/>
-      <c r="E19">
-        <v>9</v>
+      <c r="F19" s="56">
+        <v>8</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>393</v>
@@ -6411,7 +6473,10 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="56">
+        <v>9</v>
+      </c>
       <c r="B20" s="35" t="s">
         <v>137</v>
       </c>
@@ -6419,19 +6484,12 @@
         <v>403</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20">
-        <v>10</v>
-      </c>
       <c r="G20" s="33"/>
       <c r="H20" s="32"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="2:9" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:I1"/>
@@ -6443,91 +6501,91 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75962AC6-9292-4620-A39C-10A03F6AAB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M14" sqref="M14:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.77734375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="45.21875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1"/>
-    <col min="14" max="14" width="43.77734375" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="43.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="E4" s="74"/>
       <c r="F4" s="75"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
       <c r="C5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="45"/>
       <c r="C6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="45"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="45"/>
       <c r="C7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="45"/>
       <c r="C8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="44"/>
       <c r="C9" s="9"/>
       <c r="E9" s="21"/>
       <c r="F9" s="45"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E10" s="21"/>
       <c r="F10" s="45"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E11" s="21"/>
       <c r="F11" s="45"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E12" s="21"/>
       <c r="F12" s="45"/>
     </row>
-    <row r="13" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="71" t="s">
+    <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
@@ -6536,7 +6594,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="75"/>
     </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
         <v>40</v>
       </c>
@@ -6555,7 +6613,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="30" t="s">
         <v>41</v>
       </c>
@@ -6574,7 +6632,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>404</v>
       </c>
@@ -6593,7 +6651,7 @@
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="30" t="s">
         <v>405</v>
       </c>
@@ -6612,7 +6670,7 @@
       </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>406</v>
       </c>
@@ -6631,7 +6689,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="30" t="s">
         <v>407</v>
       </c>
@@ -6650,7 +6708,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
         <v>408</v>
       </c>
@@ -6669,7 +6727,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="30" t="s">
         <v>409</v>
       </c>
@@ -6690,7 +6748,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
         <v>410</v>
       </c>
@@ -6709,7 +6767,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="30" t="s">
         <v>411</v>
       </c>
@@ -6728,7 +6786,7 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>11</v>
       </c>
@@ -6740,7 +6798,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="21">
         <v>12</v>
       </c>
@@ -6752,7 +6810,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>13</v>
       </c>
@@ -6764,7 +6822,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="21">
         <v>14</v>
       </c>
@@ -6776,7 +6834,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>15</v>
       </c>
@@ -6788,7 +6846,7 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F30" s="35" t="s">
         <v>141</v>
       </c>
@@ -6797,7 +6855,7 @@
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F31" s="19" t="s">
         <v>144</v>
       </c>
@@ -6806,7 +6864,7 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F32" s="35" t="s">
         <v>145</v>
       </c>
@@ -6815,7 +6873,7 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F33" s="19" t="s">
         <v>146</v>
       </c>
@@ -6824,7 +6882,7 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="35" t="s">
         <v>147</v>
       </c>
@@ -6833,7 +6891,7 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="19" t="s">
         <v>148</v>
       </c>
@@ -6842,7 +6900,7 @@
       </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="35" t="s">
         <v>149</v>
       </c>
@@ -6851,7 +6909,7 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F37" s="19" t="s">
         <v>150</v>
       </c>
@@ -6860,7 +6918,7 @@
       </c>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="35" t="s">
         <v>151</v>
       </c>
@@ -6869,8 +6927,8 @@
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="6:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="6:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="6:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="6:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M14:O14"/>
@@ -6884,47 +6942,47 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4806E04C-CFC8-4524-BE6B-28A4C478F625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="38" style="38" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="37" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="80" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-    </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>440</v>
       </c>
@@ -6932,14 +6990,14 @@
         <v>291</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+    </row>
+    <row r="9" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
         <v>441</v>
       </c>
@@ -6950,13 +7008,13 @@
       <c r="G9" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="85" t="s">
         <v>445</v>
       </c>
-      <c r="I9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
         <v>442</v>
       </c>
@@ -6967,13 +7025,13 @@
       <c r="G10" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="84"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30" t="s">
         <v>443</v>
       </c>
@@ -6982,7 +7040,7 @@
       </c>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="29" t="s">
         <v>444</v>
       </c>
@@ -6991,7 +7049,7 @@
       </c>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B7:D7"/>
@@ -7005,48 +7063,51 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A667160-0901-4AC7-B3FD-8246C0F85466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="83" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="F5" s="71" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="F5" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6" s="19" t="s">
         <v>170</v>
       </c>
@@ -7066,7 +7127,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" s="35" t="s">
         <v>171</v>
       </c>
@@ -7086,7 +7150,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>2</v>
+      </c>
       <c r="B8" s="19" t="s">
         <v>453</v>
       </c>
@@ -7106,7 +7173,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56">
+        <v>3</v>
+      </c>
       <c r="B9" s="35" t="s">
         <v>166</v>
       </c>
@@ -7126,7 +7196,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56">
+        <v>4</v>
+      </c>
       <c r="B10" s="19" t="s">
         <v>167</v>
       </c>
@@ -7146,7 +7219,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="56">
+        <v>5</v>
+      </c>
       <c r="B11" s="35" t="s">
         <v>168</v>
       </c>
@@ -7166,7 +7242,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="56">
+        <v>6</v>
+      </c>
       <c r="B12" s="19" t="s">
         <v>169</v>
       </c>
@@ -7185,7 +7264,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="56">
+        <v>7</v>
+      </c>
       <c r="B13" s="35" t="s">
         <v>172</v>
       </c>
@@ -7197,7 +7279,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="56">
+        <v>8</v>
+      </c>
       <c r="B14" s="19" t="s">
         <v>173</v>
       </c>
@@ -7209,11 +7294,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:D5"/>
@@ -7225,35 +7310,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67E477A-2C85-42F6-86F2-A515A4E0B111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.77734375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="80" t="s">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>51</v>
       </c>
@@ -7264,13 +7349,13 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>460</v>
       </c>
@@ -7289,7 +7374,7 @@
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>461</v>
       </c>
@@ -7308,7 +7393,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
         <v>462</v>
       </c>
@@ -7327,7 +7412,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>463</v>
       </c>
@@ -7346,7 +7431,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
         <v>464</v>
       </c>
@@ -7365,7 +7450,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
         <v>465</v>
       </c>
@@ -7384,7 +7469,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>9</v>
       </c>
@@ -7396,7 +7481,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>10</v>
       </c>

--- a/Source/dữ liệu/Input,Output máy nút chặn.xlsx
+++ b/Source/dữ liệu/Input,Output máy nút chặn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="496">
   <si>
     <t>STT</t>
   </si>
@@ -1529,7 +1529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,6 +1615,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1893,7 +1909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2025,6 +2041,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2123,7 +2142,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2447,14 +2467,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2505,14 +2525,14 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2601,14 +2621,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2661,14 +2681,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2723,14 +2743,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2801,14 +2821,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2827,14 +2847,14 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2873,14 +2893,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -2919,48 +2939,48 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -2999,14 +3019,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -3025,14 +3045,14 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -3076,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,16 +3114,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="84" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="H2" s="78" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="H2" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="29" t="s">
@@ -3114,7 +3134,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>204</v>
@@ -3133,7 +3153,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>205</v>
@@ -3151,8 +3171,8 @@
         <v>311</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5">
-        <v>3</v>
+      <c r="G5" s="57">
+        <v>2</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>206</v>
@@ -3172,8 +3192,8 @@
         <v>312</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6">
-        <v>4</v>
+      <c r="G6" s="57">
+        <v>3</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>207</v>
@@ -3193,8 +3213,8 @@
         <v>313</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" s="57">
+        <v>4</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>192</v>
@@ -3214,8 +3234,8 @@
         <v>314</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8">
-        <v>6</v>
+      <c r="G8" s="57">
+        <v>5</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>193</v>
@@ -3235,8 +3255,8 @@
         <v>315</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9">
-        <v>7</v>
+      <c r="G9" s="57">
+        <v>6</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>194</v>
@@ -3254,8 +3274,8 @@
         <v>316</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10">
-        <v>8</v>
+      <c r="G10" s="57">
+        <v>7</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>195</v>
@@ -3266,8 +3286,8 @@
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11">
-        <v>9</v>
+      <c r="G11" s="57">
+        <v>8</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>196</v>
@@ -3278,8 +3298,8 @@
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12">
-        <v>10</v>
+      <c r="G12" s="57">
+        <v>9</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>197</v>
@@ -3290,8 +3310,8 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13">
-        <v>11</v>
+      <c r="G13" s="57">
+        <v>10</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>198</v>
@@ -3302,8 +3322,8 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14">
-        <v>12</v>
+      <c r="G14" s="57">
+        <v>11</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>199</v>
@@ -3327,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,18 +3365,21 @@
   <sheetData>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="G6" s="72" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="G6" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="B7" s="50" t="s">
         <v>210</v>
       </c>
@@ -3373,8 +3396,8 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>235</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" s="51" t="s">
         <v>211</v>
@@ -3385,6 +3408,9 @@
       <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59">
+        <v>2</v>
+      </c>
       <c r="B9" s="50" t="s">
         <v>218</v>
       </c>
@@ -3394,6 +3420,9 @@
       <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59">
+        <v>3</v>
+      </c>
       <c r="B10" s="51" t="s">
         <v>219</v>
       </c>
@@ -3403,6 +3432,9 @@
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
+        <v>4</v>
+      </c>
       <c r="B11" s="50" t="s">
         <v>220</v>
       </c>
@@ -3412,6 +3444,9 @@
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59">
+        <v>5</v>
+      </c>
       <c r="B12" s="51" t="s">
         <v>221</v>
       </c>
@@ -3421,6 +3456,9 @@
       <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59">
+        <v>6</v>
+      </c>
       <c r="B13" s="50" t="s">
         <v>222</v>
       </c>
@@ -3430,6 +3468,9 @@
       <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
+        <v>7</v>
+      </c>
       <c r="B14" s="51" t="s">
         <v>223</v>
       </c>
@@ -3439,6 +3480,9 @@
       <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59">
+        <v>8</v>
+      </c>
       <c r="B15" s="50" t="s">
         <v>226</v>
       </c>
@@ -3448,6 +3492,9 @@
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
+        <v>9</v>
+      </c>
       <c r="B16" s="51" t="s">
         <v>227</v>
       </c>
@@ -3475,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,16 +3540,16 @@
   <sheetData>
     <row r="5" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
-      <c r="I6" s="84" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="I6" s="87" t="s">
         <v>320</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="29" t="s">
@@ -3614,14 +3661,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3688,14 +3735,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3880,14 +3927,14 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -4044,14 +4091,14 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -4194,14 +4241,14 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -4400,14 +4447,14 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -4438,14 +4485,14 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -4560,14 +4607,14 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -4654,32 +4701,32 @@
       <c r="F77" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -4850,14 +4897,14 @@
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -5000,14 +5047,14 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
+      <c r="A106" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -5062,7 +5109,7 @@
   <dimension ref="A3:Z32"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,11 +5136,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
@@ -5142,34 +5189,34 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="O12" s="65" t="s">
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="O12" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
@@ -5192,7 +5239,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="32"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="91">
+      <c r="N13" s="58">
         <v>0</v>
       </c>
       <c r="O13" s="19" t="s">
@@ -5224,7 +5271,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="32"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="91">
+      <c r="N14" s="58">
         <v>1</v>
       </c>
       <c r="O14" s="35" t="s">
@@ -5256,7 +5303,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="32"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="91">
+      <c r="N15" s="58">
         <v>2</v>
       </c>
       <c r="O15" s="19" t="s">
@@ -5288,7 +5335,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="32"/>
       <c r="M16" s="33"/>
-      <c r="N16" s="91">
+      <c r="N16" s="58">
         <v>3</v>
       </c>
       <c r="O16" s="35" t="s">
@@ -5320,7 +5367,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="32"/>
       <c r="M17" s="33"/>
-      <c r="N17" s="91">
+      <c r="N17" s="58">
         <v>4</v>
       </c>
       <c r="O17" s="19" t="s">
@@ -5352,7 +5399,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="32"/>
       <c r="M18" s="33"/>
-      <c r="N18" s="91">
+      <c r="N18" s="58">
         <v>5</v>
       </c>
       <c r="O18" s="35" t="s">
@@ -5384,7 +5431,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="32"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="91">
+      <c r="N19" s="58">
         <v>6</v>
       </c>
       <c r="O19" s="19" t="s">
@@ -5416,7 +5463,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="32"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="91">
+      <c r="N20" s="58">
         <v>7</v>
       </c>
       <c r="O20" s="35" t="s">
@@ -5448,7 +5495,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="32"/>
       <c r="M21" s="33"/>
-      <c r="N21" s="91">
+      <c r="N21" s="58">
         <v>8</v>
       </c>
       <c r="O21" s="19" t="s">
@@ -5480,7 +5527,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="32"/>
       <c r="M22" s="33"/>
-      <c r="N22" s="91">
+      <c r="N22" s="58">
         <v>9</v>
       </c>
       <c r="O22" s="35" t="s">
@@ -5514,7 +5561,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="32"/>
       <c r="M23" s="33"/>
-      <c r="N23" s="91">
+      <c r="N23" s="58">
         <v>10</v>
       </c>
       <c r="O23" s="19" t="s">
@@ -5546,7 +5593,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="32"/>
       <c r="M24" s="33"/>
-      <c r="N24" s="91">
+      <c r="N24" s="58">
         <v>11</v>
       </c>
       <c r="O24" s="35" t="s">
@@ -5578,7 +5625,7 @@
       <c r="K25" s="25"/>
       <c r="L25" s="32"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="91">
+      <c r="N25" s="58">
         <v>12</v>
       </c>
       <c r="O25" s="19" t="s">
@@ -5610,7 +5657,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="32"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="91">
+      <c r="N26" s="58">
         <v>13</v>
       </c>
       <c r="O26" s="35" t="s">
@@ -5632,7 +5679,7 @@
       <c r="K27" s="25"/>
       <c r="L27" s="32"/>
       <c r="M27" s="33"/>
-      <c r="N27" s="91">
+      <c r="N27" s="58">
         <v>14</v>
       </c>
       <c r="O27" s="19" t="s">
@@ -5654,7 +5701,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="32"/>
       <c r="M28" s="33"/>
-      <c r="N28" s="91">
+      <c r="N28" s="58">
         <v>15</v>
       </c>
       <c r="O28" s="35" t="s">
@@ -5670,7 +5717,7 @@
     </row>
     <row r="29" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="18"/>
-      <c r="N29" s="91">
+      <c r="N29" s="58">
         <v>16</v>
       </c>
       <c r="O29" s="19" t="s">
@@ -5682,7 +5729,7 @@
       <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N30" s="91">
+      <c r="N30" s="58">
         <v>17</v>
       </c>
       <c r="O30" s="35" t="s">
@@ -5694,7 +5741,7 @@
       <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="1:20" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N31" s="91">
+      <c r="N31" s="58">
         <v>18</v>
       </c>
       <c r="O31" s="19" t="s">
@@ -5726,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView topLeftCell="B12" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5741,7 +5788,7 @@
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" style="37" customWidth="1"/>
     <col min="15" max="15" width="43.7109375" style="38" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -5763,10 +5810,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="H4" s="54"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
@@ -5824,25 +5871,25 @@
     </row>
     <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="I15" s="72" t="s">
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="I15" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="N15" s="65" t="s">
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="N15" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="O15" s="66"/>
-      <c r="P15" s="67"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
@@ -5859,7 +5906,7 @@
       </c>
       <c r="K16" s="14"/>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>126</v>
@@ -5884,7 +5931,7 @@
       </c>
       <c r="K17" s="14"/>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="35" t="s">
         <v>127</v>
@@ -5908,8 +5955,8 @@
         <v>263</v>
       </c>
       <c r="K18" s="14"/>
-      <c r="L18">
-        <v>3</v>
+      <c r="L18" s="59">
+        <v>2</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>369</v>
@@ -5933,8 +5980,8 @@
         <v>264</v>
       </c>
       <c r="K19" s="14"/>
-      <c r="L19">
-        <v>4</v>
+      <c r="L19" s="59">
+        <v>3</v>
       </c>
       <c r="N19" s="35" t="s">
         <v>121</v>
@@ -5958,8 +6005,8 @@
         <v>265</v>
       </c>
       <c r="K20" s="14"/>
-      <c r="L20">
-        <v>5</v>
+      <c r="L20" s="59">
+        <v>4</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>370</v>
@@ -5983,8 +6030,8 @@
         <v>266</v>
       </c>
       <c r="K21" s="14"/>
-      <c r="L21">
-        <v>6</v>
+      <c r="L21" s="59">
+        <v>5</v>
       </c>
       <c r="N21" s="35" t="s">
         <v>371</v>
@@ -6001,8 +6048,8 @@
       <c r="E22" s="25"/>
       <c r="F22" s="32"/>
       <c r="G22" s="25"/>
-      <c r="L22">
-        <v>7</v>
+      <c r="L22" s="59">
+        <v>6</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>122</v>
@@ -6019,8 +6066,8 @@
       <c r="E23" s="25"/>
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
-      <c r="L23">
-        <v>8</v>
+      <c r="L23" s="59">
+        <v>7</v>
       </c>
       <c r="N23" s="35" t="s">
         <v>123</v>
@@ -6040,8 +6087,8 @@
       <c r="E24" s="25"/>
       <c r="F24" s="32"/>
       <c r="G24" s="25"/>
-      <c r="L24">
-        <v>9</v>
+      <c r="L24" s="59">
+        <v>8</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>124</v>
@@ -6058,8 +6105,8 @@
       <c r="E25" s="25"/>
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
-      <c r="L25">
-        <v>10</v>
+      <c r="L25" s="59">
+        <v>9</v>
       </c>
       <c r="N25" s="35" t="s">
         <v>125</v>
@@ -6076,8 +6123,8 @@
       <c r="E26" s="25"/>
       <c r="F26" s="32"/>
       <c r="G26" s="25"/>
-      <c r="L26">
-        <v>11</v>
+      <c r="L26" s="59">
+        <v>10</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>372</v>
@@ -6091,8 +6138,8 @@
       <c r="E27" s="25"/>
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
-      <c r="L27">
-        <v>12</v>
+      <c r="L27" s="59">
+        <v>11</v>
       </c>
       <c r="N27" s="35" t="s">
         <v>373</v>
@@ -6106,8 +6153,8 @@
       <c r="E28" s="25"/>
       <c r="F28" s="32"/>
       <c r="G28" s="25"/>
-      <c r="L28">
-        <v>13</v>
+      <c r="L28" s="59">
+        <v>12</v>
       </c>
       <c r="N28" s="19" t="s">
         <v>373</v>
@@ -6121,8 +6168,8 @@
       <c r="E29" s="25"/>
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
-      <c r="L29">
-        <v>14</v>
+      <c r="L29" s="59">
+        <v>13</v>
       </c>
       <c r="N29" s="35" t="s">
         <v>374</v>
@@ -6136,8 +6183,8 @@
       <c r="E30" s="25"/>
       <c r="F30" s="32"/>
       <c r="G30" s="25"/>
-      <c r="L30">
-        <v>15</v>
+      <c r="L30" s="59">
+        <v>14</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>375</v>
@@ -6148,8 +6195,8 @@
       <c r="P30" s="19"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L31">
-        <v>16</v>
+      <c r="L31" s="59">
+        <v>15</v>
       </c>
       <c r="N31" s="35" t="s">
         <v>117</v>
@@ -6160,6 +6207,9 @@
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="59">
+        <v>16</v>
+      </c>
       <c r="N32" s="19" t="s">
         <v>118</v>
       </c>
@@ -6168,7 +6218,10 @@
       </c>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="59">
+        <v>17</v>
+      </c>
       <c r="N33" s="35" t="s">
         <v>119</v>
       </c>
@@ -6177,7 +6230,10 @@
       </c>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="14:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="59">
+        <v>18</v>
+      </c>
       <c r="N34" s="19" t="s">
         <v>120</v>
       </c>
@@ -6186,7 +6242,7 @@
       </c>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="14:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="12:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="N15:P15"/>
@@ -6205,7 +6261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -6220,8 +6276,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H2" s="52"/>
@@ -6264,16 +6320,16 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="G10" s="77" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="G10" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -6504,17 +6560,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:O14"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="44.5703125" style="38" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="37" customWidth="1"/>
@@ -6526,10 +6582,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
@@ -6575,26 +6631,26 @@
     </row>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+    </row>
+    <row r="15" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
         <v>40</v>
       </c>
@@ -6602,8 +6658,8 @@
         <v>277</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" s="94">
+        <v>0</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>152</v>
@@ -6613,7 +6669,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="30" t="s">
         <v>41</v>
       </c>
@@ -6621,8 +6677,8 @@
         <v>278</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="21">
-        <v>2</v>
+      <c r="E16" s="95">
+        <v>1</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>153</v>
@@ -6632,7 +6688,7 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="29" t="s">
         <v>404</v>
       </c>
@@ -6640,8 +6696,8 @@
         <v>279</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17">
-        <v>3</v>
+      <c r="E17" s="94">
+        <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>412</v>
@@ -6651,7 +6707,7 @@
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="30" t="s">
         <v>405</v>
       </c>
@@ -6659,8 +6715,8 @@
         <v>280</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="21">
-        <v>4</v>
+      <c r="E18" s="95">
+        <v>3</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>413</v>
@@ -6670,7 +6726,7 @@
       </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="29" t="s">
         <v>406</v>
       </c>
@@ -6678,8 +6734,8 @@
         <v>281</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19">
-        <v>5</v>
+      <c r="E19" s="94">
+        <v>4</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>414</v>
@@ -6689,7 +6745,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="30" t="s">
         <v>407</v>
       </c>
@@ -6697,8 +6753,8 @@
         <v>282</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="21">
-        <v>6</v>
+      <c r="E20" s="95">
+        <v>5</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>415</v>
@@ -6708,7 +6764,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="29" t="s">
         <v>408</v>
       </c>
@@ -6716,8 +6772,8 @@
         <v>283</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21">
-        <v>7</v>
+      <c r="E21" s="94">
+        <v>6</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>416</v>
@@ -6727,7 +6783,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="30" t="s">
         <v>409</v>
       </c>
@@ -6737,8 +6793,8 @@
       <c r="D22" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E22" s="21">
-        <v>8</v>
+      <c r="E22" s="95">
+        <v>7</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>417</v>
@@ -6748,7 +6804,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="29" t="s">
         <v>410</v>
       </c>
@@ -6756,8 +6812,8 @@
         <v>285</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23">
-        <v>9</v>
+      <c r="E23" s="94">
+        <v>8</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>418</v>
@@ -6767,7 +6823,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="30" t="s">
         <v>411</v>
       </c>
@@ -6775,8 +6831,8 @@
         <v>286</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="21">
-        <v>10</v>
+      <c r="E24" s="95">
+        <v>9</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>419</v>
@@ -6786,9 +6842,9 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25">
-        <v>11</v>
+    <row r="25" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E25" s="94">
+        <v>10</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>420</v>
@@ -6798,9 +6854,9 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="21">
-        <v>12</v>
+    <row r="26" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E26" s="95">
+        <v>11</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>421</v>
@@ -6810,9 +6866,9 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27">
-        <v>13</v>
+    <row r="27" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E27" s="94">
+        <v>12</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>138</v>
@@ -6822,9 +6878,9 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="21">
-        <v>14</v>
+    <row r="28" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="95">
+        <v>13</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>139</v>
@@ -6834,9 +6890,9 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29">
-        <v>15</v>
+    <row r="29" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="94">
+        <v>14</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>140</v>
@@ -6846,7 +6902,10 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="95">
+        <v>15</v>
+      </c>
       <c r="F30" s="35" t="s">
         <v>141</v>
       </c>
@@ -6855,7 +6914,10 @@
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E31" s="94">
+        <v>16</v>
+      </c>
       <c r="F31" s="19" t="s">
         <v>144</v>
       </c>
@@ -6864,7 +6926,10 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E32" s="95">
+        <v>17</v>
+      </c>
       <c r="F32" s="35" t="s">
         <v>145</v>
       </c>
@@ -6873,7 +6938,10 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E33" s="94">
+        <v>18</v>
+      </c>
       <c r="F33" s="19" t="s">
         <v>146</v>
       </c>
@@ -6882,7 +6950,10 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E34" s="95">
+        <v>19</v>
+      </c>
       <c r="F34" s="35" t="s">
         <v>147</v>
       </c>
@@ -6891,7 +6962,10 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E35" s="94">
+        <v>20</v>
+      </c>
       <c r="F35" s="19" t="s">
         <v>148</v>
       </c>
@@ -6900,7 +6974,10 @@
       </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E36" s="95">
+        <v>21</v>
+      </c>
       <c r="F36" s="35" t="s">
         <v>149</v>
       </c>
@@ -6909,7 +6986,10 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E37" s="94">
+        <v>22</v>
+      </c>
       <c r="F37" s="19" t="s">
         <v>150</v>
       </c>
@@ -6918,7 +6998,10 @@
       </c>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="6:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E38" s="95">
+        <v>23</v>
+      </c>
       <c r="F38" s="35" t="s">
         <v>151</v>
       </c>
@@ -6927,8 +7010,8 @@
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="6:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="6:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="5:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M14:O14"/>
@@ -6938,6 +7021,7 @@
     <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6945,7 +7029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6962,25 +7046,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
@@ -6990,12 +7074,12 @@
         <v>291</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
@@ -7008,10 +7092,10 @@
       <c r="G9" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="88" t="s">
         <v>445</v>
       </c>
-      <c r="I9" s="85"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="42"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7025,10 +7109,10 @@
       <c r="G10" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="85"/>
+      <c r="I10" s="88"/>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7088,20 +7172,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="F5" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7329,11 +7413,11 @@
   <sheetData>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6">
         <v>1</v>
       </c>
@@ -7349,11 +7433,11 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">

--- a/Source/dữ liệu/Input,Output máy nút chặn.xlsx
+++ b/Source/dữ liệu/Input,Output máy nút chặn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2044,6 +2044,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2142,8 +2148,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2467,14 +2471,14 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2525,14 +2529,14 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2621,14 +2625,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2681,14 +2685,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2743,14 +2747,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2821,14 +2825,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2847,14 +2851,14 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2893,14 +2897,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -2939,48 +2943,48 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -3019,14 +3023,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -3045,14 +3049,14 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -3072,6 +3076,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A33:F33"/>
@@ -3081,11 +3090,6 @@
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A34:F35"/>
     <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3096,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
@@ -3114,16 +3118,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="H2" s="81" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="H2" s="85" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="29" t="s">
@@ -3365,16 +3369,16 @@
   <sheetData>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="G6" s="75" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="G6" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3522,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3540,16 +3544,16 @@
   <sheetData>
     <row r="5" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="I6" s="87" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="29" t="s">
@@ -3661,14 +3665,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3735,14 +3739,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3927,14 +3931,14 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -4091,14 +4095,14 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -4241,14 +4245,14 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -4447,14 +4451,14 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -4485,14 +4489,14 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -4607,14 +4611,14 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -4701,32 +4705,32 @@
       <c r="F77" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="60" t="s">
+      <c r="A82" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -4897,14 +4901,14 @@
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="60" t="s">
+      <c r="A95" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -5047,14 +5051,14 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="60" t="s">
+      <c r="A106" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -5086,6 +5090,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A95:F95"/>
     <mergeCell ref="A106:F106"/>
     <mergeCell ref="A59:F59"/>
@@ -5093,11 +5102,6 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A79:F80"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5136,11 +5140,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="8"/>
@@ -5189,34 +5193,34 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="O12" s="68" t="s">
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="O12" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="70"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="74"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
@@ -5810,10 +5814,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="H4" s="54"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
@@ -5871,25 +5875,25 @@
     </row>
     <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:26" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="I15" s="75" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="I15" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="N15" s="68" t="s">
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="N15" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
@@ -6276,8 +6280,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H2" s="52"/>
@@ -6320,16 +6324,16 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="G10" s="80" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="G10" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -6582,10 +6586,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="45"/>
@@ -6631,24 +6635,24 @@
     </row>
     <row r="13" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
     </row>
     <row r="15" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
@@ -6658,7 +6662,7 @@
         <v>277</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="94">
+      <c r="E15" s="62">
         <v>0</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -6677,7 +6681,7 @@
         <v>278</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="95">
+      <c r="E16" s="63">
         <v>1</v>
       </c>
       <c r="F16" s="35" t="s">
@@ -6696,7 +6700,7 @@
         <v>279</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="94">
+      <c r="E17" s="62">
         <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -6715,7 +6719,7 @@
         <v>280</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="95">
+      <c r="E18" s="63">
         <v>3</v>
       </c>
       <c r="F18" s="35" t="s">
@@ -6734,7 +6738,7 @@
         <v>281</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="94">
+      <c r="E19" s="62">
         <v>4</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -6753,7 +6757,7 @@
         <v>282</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="95">
+      <c r="E20" s="63">
         <v>5</v>
       </c>
       <c r="F20" s="35" t="s">
@@ -6772,7 +6776,7 @@
         <v>283</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="94">
+      <c r="E21" s="62">
         <v>6</v>
       </c>
       <c r="F21" s="19" t="s">
@@ -6793,7 +6797,7 @@
       <c r="D22" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E22" s="63">
         <v>7</v>
       </c>
       <c r="F22" s="35" t="s">
@@ -6812,7 +6816,7 @@
         <v>285</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="94">
+      <c r="E23" s="62">
         <v>8</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -6831,7 +6835,7 @@
         <v>286</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="95">
+      <c r="E24" s="63">
         <v>9</v>
       </c>
       <c r="F24" s="35" t="s">
@@ -6843,7 +6847,7 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E25" s="94">
+      <c r="E25" s="62">
         <v>10</v>
       </c>
       <c r="F25" s="19" t="s">
@@ -6855,7 +6859,7 @@
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E26" s="95">
+      <c r="E26" s="63">
         <v>11</v>
       </c>
       <c r="F26" s="35" t="s">
@@ -6867,7 +6871,7 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E27" s="94">
+      <c r="E27" s="62">
         <v>12</v>
       </c>
       <c r="F27" s="19" t="s">
@@ -6879,7 +6883,7 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="95">
+      <c r="E28" s="63">
         <v>13</v>
       </c>
       <c r="F28" s="35" t="s">
@@ -6891,7 +6895,7 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E29" s="94">
+      <c r="E29" s="62">
         <v>14</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -6903,7 +6907,7 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E30" s="95">
+      <c r="E30" s="63">
         <v>15</v>
       </c>
       <c r="F30" s="35" t="s">
@@ -6915,7 +6919,7 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E31" s="94">
+      <c r="E31" s="62">
         <v>16</v>
       </c>
       <c r="F31" s="19" t="s">
@@ -6927,7 +6931,7 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E32" s="95">
+      <c r="E32" s="63">
         <v>17</v>
       </c>
       <c r="F32" s="35" t="s">
@@ -6939,7 +6943,7 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E33" s="94">
+      <c r="E33" s="62">
         <v>18</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -6951,7 +6955,7 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E34" s="95">
+      <c r="E34" s="63">
         <v>19</v>
       </c>
       <c r="F34" s="35" t="s">
@@ -6963,7 +6967,7 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E35" s="94">
+      <c r="E35" s="62">
         <v>20</v>
       </c>
       <c r="F35" s="19" t="s">
@@ -6975,7 +6979,7 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E36" s="95">
+      <c r="E36" s="63">
         <v>21</v>
       </c>
       <c r="F36" s="35" t="s">
@@ -6987,7 +6991,7 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E37" s="94">
+      <c r="E37" s="62">
         <v>22</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -6999,7 +7003,7 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="5:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E38" s="95">
+      <c r="E38" s="63">
         <v>23</v>
       </c>
       <c r="F38" s="35" t="s">
@@ -7046,25 +7050,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
@@ -7074,12 +7078,12 @@
         <v>291</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
@@ -7092,10 +7096,10 @@
       <c r="G9" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="92" t="s">
         <v>445</v>
       </c>
-      <c r="I9" s="88"/>
+      <c r="I9" s="92"/>
       <c r="J9" s="42"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7109,10 +7113,10 @@
       <c r="G10" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="92"/>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7151,7 +7155,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J6" sqref="J6:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7172,20 +7176,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="F5" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7208,7 +7212,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="25"/>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7231,7 +7235,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="25"/>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7253,8 +7257,8 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="25"/>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" s="61">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7276,8 +7280,8 @@
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="25"/>
-      <c r="J9">
-        <v>4</v>
+      <c r="J9" s="61">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7299,8 +7303,8 @@
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="25"/>
-      <c r="J10">
-        <v>5</v>
+      <c r="J10" s="61">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7322,8 +7326,8 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="25"/>
-      <c r="J11">
-        <v>6</v>
+      <c r="J11" s="61">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7344,8 +7348,8 @@
         <v>303</v>
       </c>
       <c r="H12" s="36"/>
-      <c r="J12">
-        <v>7</v>
+      <c r="J12" s="61">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7359,8 +7363,8 @@
         <v>458</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="J13">
-        <v>8</v>
+      <c r="J13" s="61">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7374,8 +7378,8 @@
         <v>459</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="J14">
-        <v>9</v>
+      <c r="J14" s="61">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7395,10 +7399,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H15"/>
+  <dimension ref="B5:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H14"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,14 +7417,16 @@
   <sheetData>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="88" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="F6" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
@@ -7431,13 +7437,15 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
@@ -7448,13 +7456,13 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>468</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -7466,14 +7474,14 @@
         <v>307</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>175</v>
+      <c r="E9" s="61">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -7485,14 +7493,14 @@
         <v>308</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>466</v>
+      <c r="E10" s="61">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>470</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -7504,14 +7512,14 @@
         <v>309</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>470</v>
+      <c r="E11" s="61">
+        <v>4</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>471</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -7523,18 +7531,18 @@
         <v>466</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>471</v>
+      <c r="E12" s="61">
+        <v>5</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>470</v>
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
         <v>465</v>
       </c>
@@ -7542,38 +7550,22 @@
         <v>310</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>178</v>
+      <c r="E13" s="61">
+        <v>6</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
